--- a/data/trans_dic/P62A$invalidez-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08720785550315942</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4495265440948764</v>
+        <v>0.4495265440948765</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.08829251737742873</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05717307620047529</v>
+        <v>0.05519607765484811</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1046728942224813</v>
+        <v>0.1010577692724907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04651431114321785</v>
+        <v>0.04464325801177547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009617211939079466</v>
+        <v>0.00823602044479336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0449580408073015</v>
+        <v>0.04314888669104493</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04473113959973236</v>
+        <v>0.04397886698539233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05006961183460929</v>
+        <v>0.04793106457302711</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3961083178972314</v>
+        <v>0.3995161078255436</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06009564233869922</v>
+        <v>0.05974737153444371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09028667153199227</v>
+        <v>0.08588090919503844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05448373607501517</v>
+        <v>0.05731393759466864</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1959898209471401</v>
+        <v>0.1956240448621158</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1399796556464084</v>
+        <v>0.1470108643124148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2117839412203799</v>
+        <v>0.214264207652614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1278919801119896</v>
+        <v>0.1237580789085867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05328056009397008</v>
+        <v>0.05031968879097955</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1371377689749567</v>
+        <v>0.1366468009268365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1337103456021716</v>
+        <v>0.1387639280220556</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1495180388906799</v>
+        <v>0.1478201470399262</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5007283926153031</v>
+        <v>0.4993066826359394</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1226514123347611</v>
+        <v>0.1223147126951571</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1617164635157514</v>
+        <v>0.1599086687612161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1176061726717813</v>
+        <v>0.117520635846405</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2582477687142032</v>
+        <v>0.2587447541533363</v>
       </c>
     </row>
     <row r="7">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05941486897932052</v>
+        <v>0.05554649525882263</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1345325145805739</v>
+        <v>0.1266637739245728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0826875034699186</v>
+        <v>0.08042118107718431</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.05710638458038831</v>
+        <v>0.06203221206697612</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06825359150477685</v>
+        <v>0.07363171363570412</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03946951022624998</v>
+        <v>0.03951138190486343</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3843572249075234</v>
+        <v>0.37889027219607</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06856069150309212</v>
+        <v>0.06762422718987268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1144225353426296</v>
+        <v>0.112990976639877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07195575257428542</v>
+        <v>0.06987365606567933</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1805686465771604</v>
+        <v>0.1783016696669965</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1349982673096332</v>
+        <v>0.1371576597021713</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2341734489324744</v>
+        <v>0.224136638488736</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1611277396113049</v>
+        <v>0.1612338335711369</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.1615338159916595</v>
+        <v>0.1652870534329547</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1618456881440927</v>
+        <v>0.164445988284883</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.113909107172111</v>
+        <v>0.1127576772419111</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4889415403375802</v>
+        <v>0.4878722274868313</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1294112661973836</v>
+        <v>0.1270988981500202</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.181316149828681</v>
+        <v>0.1816060419700568</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1293988688309952</v>
+        <v>0.1266022475569046</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2392514999678814</v>
+        <v>0.2374054187957732</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08029846210744669</v>
+        <v>0.08069189438220663</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1438769244469744</v>
+        <v>0.1408645327476477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04531833706839059</v>
+        <v>0.04440284640391191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005810365045547135</v>
+        <v>0.007116282118113406</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03270015755518307</v>
+        <v>0.03138348980743991</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0677876219545225</v>
+        <v>0.06908778427143289</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04505487308027067</v>
+        <v>0.04376320178352996</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2814058808269556</v>
+        <v>0.2774536316552441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07045014822005259</v>
+        <v>0.06935459290076</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1196563897657049</v>
+        <v>0.116386816439961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05382752692006871</v>
+        <v>0.05484348115676527</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1238206052088039</v>
+        <v>0.1214915862306362</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1829124772551773</v>
+        <v>0.1929276683533079</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2768899936867289</v>
+        <v>0.2711138991385336</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1311501762573664</v>
+        <v>0.1258798650427853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04504940676698384</v>
+        <v>0.0474100817411219</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1360669051852287</v>
+        <v>0.1396672315028742</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.198184441012146</v>
+        <v>0.1914520753647376</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1506102493007254</v>
+        <v>0.1485850503422992</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4007778877000719</v>
+        <v>0.4008374750429964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1424413762820416</v>
+        <v>0.1441638933802728</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2118622715191924</v>
+        <v>0.2076417672126854</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1191677497391709</v>
+        <v>0.1206553443873055</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1873639688712729</v>
+        <v>0.1843144344823871</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.05972131733800352</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3346046873240856</v>
+        <v>0.3346046873240857</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07926657637665856</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04615112128375544</v>
+        <v>0.04943427953000039</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0904736470937811</v>
+        <v>0.09562979597656737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07062473683985598</v>
+        <v>0.07321990330046617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003102374271571572</v>
+        <v>0.003096789066464701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04383227935974737</v>
+        <v>0.03989158457988884</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07427696825910102</v>
+        <v>0.07088950382169927</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03420080669355927</v>
+        <v>0.03310152054725403</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2906812794993854</v>
+        <v>0.2900784577544609</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05534104747904828</v>
+        <v>0.05374224301294725</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09562576154957628</v>
+        <v>0.09552832486989317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06100657836204906</v>
+        <v>0.06048279384577025</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1561116382000335</v>
+        <v>0.1539336685190997</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1336169262553326</v>
+        <v>0.1389139857290273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1905222674997293</v>
+        <v>0.1937701959329382</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1492092337405306</v>
+        <v>0.1553672975900345</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03363417815001511</v>
+        <v>0.03246562585503279</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.120193362962118</v>
+        <v>0.1274526322672623</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1624318180775984</v>
+        <v>0.1569091429756392</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09803276233038062</v>
+        <v>0.09719476021996207</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3807854068101001</v>
+        <v>0.3796760601182056</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1158811006126186</v>
+        <v>0.1138864070199863</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1632186957309813</v>
+        <v>0.1604522619525086</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1106996598204729</v>
+        <v>0.1091172428170969</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2113296069162766</v>
+        <v>0.211431569067886</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.09798565194205118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.01331251390920673</v>
+        <v>0.01331251390920672</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08229793987075504</v>
@@ -1237,7 +1237,7 @@
         <v>0.08662244059720534</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1923660332030919</v>
+        <v>0.1923660332030918</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1408017289999829</v>
+        <v>0.1390538884624981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07924797404986965</v>
+        <v>0.07892967107060074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006928395101279921</v>
+        <v>0.007501934307893181</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08282129013605381</v>
+        <v>0.0828222943730213</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05400155661627228</v>
+        <v>0.0546778712543319</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3611902687530758</v>
+        <v>0.3627717245537423</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1203935877595559</v>
+        <v>0.1193409914167878</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07314175485620428</v>
+        <v>0.0738976741931181</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1776124705650817</v>
+        <v>0.1781974152921591</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1908579410315716</v>
+        <v>0.1908580419640886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1197906245593155</v>
+        <v>0.1199222278753561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02180632796378092</v>
+        <v>0.02227525554702169</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1290909552259382</v>
+        <v>0.1313796266793991</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09382418150268458</v>
+        <v>0.09370840149034666</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4125137181140916</v>
+        <v>0.4159522682061109</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1549766888935842</v>
+        <v>0.1564107801828016</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1026365027858154</v>
+        <v>0.102803927804984</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2068893189570536</v>
+        <v>0.2084555478946757</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9783</v>
+        <v>9445</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22134</v>
+        <v>21370</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8814</v>
+        <v>8460</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1891</v>
+        <v>1619</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5694</v>
+        <v>5465</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7337</v>
+        <v>7214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7466</v>
+        <v>7148</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>71812</v>
+        <v>72430</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17894</v>
+        <v>17790</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>33902</v>
+        <v>32247</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18449</v>
+        <v>19407</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>74068</v>
+        <v>73930</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23952</v>
+        <v>25155</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44784</v>
+        <v>45309</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24235</v>
+        <v>23451</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10476</v>
+        <v>9894</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17368</v>
+        <v>17306</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21932</v>
+        <v>22761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22296</v>
+        <v>22043</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>90779</v>
+        <v>90521</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36520</v>
+        <v>36420</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60723</v>
+        <v>60044</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>39823</v>
+        <v>39794</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>97596</v>
+        <v>97784</v>
       </c>
     </row>
     <row r="8">
@@ -1776,38 +1776,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13221</v>
+        <v>12360</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>33128</v>
+        <v>31190</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21880</v>
+        <v>21281</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>8759</v>
+        <v>9515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14316</v>
+        <v>15444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8046</v>
+        <v>8055</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>78201</v>
+        <v>77089</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25772</v>
+        <v>25420</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>52176</v>
+        <v>51523</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33709</v>
+        <v>32734</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>76381</v>
+        <v>75422</v>
       </c>
     </row>
     <row r="11">
@@ -1818,38 +1818,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30040</v>
+        <v>30520</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>57664</v>
+        <v>55192</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42637</v>
+        <v>42665</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>24777</v>
+        <v>25352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33947</v>
+        <v>34493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23221</v>
+        <v>22986</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>99480</v>
+        <v>99262</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48646</v>
+        <v>47777</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82679</v>
+        <v>82811</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>60619</v>
+        <v>59309</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>101204</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12397</v>
+        <v>12458</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24278</v>
+        <v>23770</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8251</v>
+        <v>8084</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1316</v>
+        <v>1612</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3918</v>
+        <v>3760</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10024</v>
+        <v>10216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6103</v>
+        <v>5928</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45685</v>
+        <v>45043</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19317</v>
+        <v>19016</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>37885</v>
+        <v>36850</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>17092</v>
+        <v>17414</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>48141</v>
+        <v>47236</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28239</v>
+        <v>29785</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46723</v>
+        <v>45748</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23879</v>
+        <v>22919</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10202</v>
+        <v>10736</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16302</v>
+        <v>16733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29306</v>
+        <v>28311</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20401</v>
+        <v>20126</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>65064</v>
+        <v>65074</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39056</v>
+        <v>39528</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67079</v>
+        <v>65742</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37839</v>
+        <v>38311</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>72847</v>
+        <v>71661</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8762</v>
+        <v>9386</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22136</v>
+        <v>23398</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18719</v>
+        <v>19407</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7725</v>
+        <v>7031</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16671</v>
+        <v>15910</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8503</v>
+        <v>8229</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>74633</v>
+        <v>74478</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20261</v>
+        <v>19675</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>44859</v>
+        <v>44813</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31337</v>
+        <v>31068</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>76273</v>
+        <v>75209</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25369</v>
+        <v>26374</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46615</v>
+        <v>47410</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39549</v>
+        <v>41181</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7797</v>
+        <v>7527</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21184</v>
+        <v>22463</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>36456</v>
+        <v>35216</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24372</v>
+        <v>24164</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>97767</v>
+        <v>97482</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42425</v>
+        <v>41695</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>76567</v>
+        <v>75269</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56863</v>
+        <v>56050</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>103252</v>
+        <v>103302</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>122655</v>
+        <v>121132</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>71421</v>
+        <v>71134</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6059</v>
+        <v>6560</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61792</v>
+        <v>61793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>39801</v>
+        <v>40300</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>290342</v>
+        <v>291613</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>194701</v>
+        <v>192998</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>119826</v>
+        <v>121065</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>298087</v>
+        <v>299068</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>166259</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>107959</v>
+        <v>108078</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19069</v>
+        <v>19479</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>96313</v>
+        <v>98021</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69152</v>
+        <v>69067</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>331598</v>
+        <v>334362</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>250629</v>
+        <v>252948</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>168147</v>
+        <v>168421</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>347222</v>
+        <v>349851</v>
       </c>
     </row>
     <row r="24">
